--- a/table/question/question-tiyv.xlsx
+++ b/table/question/question-tiyv.xlsx
@@ -10,14 +10,14 @@
     <sheet name="question-tiyv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-tiyv'!$I$1:$J$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'question-tiyv'!$I$1:$J$309</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="1215">
   <si>
     <t>ID</t>
   </si>
@@ -3467,6 +3467,201 @@
   </si>
   <si>
     <t>劳动</t>
+  </si>
+  <si>
+    <t>下列选项中，属于冬季奥运会项目的是：</t>
+  </si>
+  <si>
+    <t>花样滑冰</t>
+  </si>
+  <si>
+    <t>下列选项中，属于夏季奥运会项目的是：</t>
+  </si>
+  <si>
+    <t>越野滑雪</t>
+  </si>
+  <si>
+    <t>高山滑雪</t>
+  </si>
+  <si>
+    <t>速度滑冰</t>
+  </si>
+  <si>
+    <t>国际羽联举办的世界女子团体羽毛球锦标赛是：</t>
+  </si>
+  <si>
+    <t>苏迪曼杯赛</t>
+  </si>
+  <si>
+    <t>汤姆斯杯赛</t>
+  </si>
+  <si>
+    <t>世界杯赛</t>
+  </si>
+  <si>
+    <t>尤伯杯赛</t>
+  </si>
+  <si>
+    <t>在莫斯科宣布第二十九届奥运会举办城市为北京的是：</t>
+  </si>
+  <si>
+    <t>萨马兰奇</t>
+  </si>
+  <si>
+    <t>雅克·罗格</t>
+  </si>
+  <si>
+    <t>托马斯·巴赫</t>
+  </si>
+  <si>
+    <t>艾弗里·布伦戴奇</t>
+  </si>
+  <si>
+    <t>在规定距离内以竞速为目的的滑冰比赛，是哪种运动项目？</t>
+  </si>
+  <si>
+    <t>下列不属于女子竞技体操项目的是：</t>
+  </si>
+  <si>
+    <t>平衡木</t>
+  </si>
+  <si>
+    <t>下列不属于男子竞技体操项目的是：</t>
+  </si>
+  <si>
+    <t>鞍马</t>
+  </si>
+  <si>
+    <t>在奥运会跳台比赛中，跳台高度限定为：</t>
+  </si>
+  <si>
+    <t>3米</t>
+  </si>
+  <si>
+    <t>5米</t>
+  </si>
+  <si>
+    <t>8米</t>
+  </si>
+  <si>
+    <t>在网球正式比赛中，女子单、双打和混双采取：</t>
+  </si>
+  <si>
+    <t>七盘五胜制</t>
+  </si>
+  <si>
+    <t>五盘三胜制</t>
+  </si>
+  <si>
+    <t>三盘两胜制</t>
+  </si>
+  <si>
+    <t>一盘一胜制</t>
+  </si>
+  <si>
+    <t>2022年北京冬奥会主题口号是：</t>
+  </si>
+  <si>
+    <t>一起向未来</t>
+  </si>
+  <si>
+    <t>点燃心中之火</t>
+  </si>
+  <si>
+    <t>同一个世界</t>
+  </si>
+  <si>
+    <t>激情同在</t>
+  </si>
+  <si>
+    <t>下列不属于“FITT原则”的是：</t>
+  </si>
+  <si>
+    <t>运动频率</t>
+  </si>
+  <si>
+    <t>运动强度</t>
+  </si>
+  <si>
+    <t>运动步长</t>
+  </si>
+  <si>
+    <t>运动时间</t>
+  </si>
+  <si>
+    <t>终身体育的基础是：</t>
+  </si>
+  <si>
+    <t>社会体育</t>
+  </si>
+  <si>
+    <t>学校体育</t>
+  </si>
+  <si>
+    <t>社区体育</t>
+  </si>
+  <si>
+    <t>竞技体育</t>
+  </si>
+  <si>
+    <t>在田径运动中，步长指的是：</t>
+  </si>
+  <si>
+    <t>后蹬距离</t>
+  </si>
+  <si>
+    <t>着地缓冲距离</t>
+  </si>
+  <si>
+    <t>腾空距离</t>
+  </si>
+  <si>
+    <t>两脚着地点间距离</t>
+  </si>
+  <si>
+    <t>在2020东京奥运会上，获得乒乓球女单冠军的是：</t>
+  </si>
+  <si>
+    <t>陈梦</t>
+  </si>
+  <si>
+    <t>孙颖莎</t>
+  </si>
+  <si>
+    <t>王曼昱</t>
+  </si>
+  <si>
+    <t>朱雨玲</t>
+  </si>
+  <si>
+    <t>在2020东京奥运会上，获得女子10米跳台跳水冠军的是：</t>
+  </si>
+  <si>
+    <t>陈芋汐</t>
+  </si>
+  <si>
+    <t>全红婵</t>
+  </si>
+  <si>
+    <t>伍丽群</t>
+  </si>
+  <si>
+    <t>陈若琳</t>
+  </si>
+  <si>
+    <t>国际奥委会的第一位中国委员是：</t>
+  </si>
+  <si>
+    <t>王正廷</t>
+  </si>
+  <si>
+    <t>于再清</t>
+  </si>
+  <si>
+    <t>董守义</t>
+  </si>
+  <si>
+    <t>孔祥熙</t>
   </si>
 </sst>
 </file>
@@ -4580,10 +4775,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O309"/>
+  <dimension ref="A1:O325"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B305" sqref="B305"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A309" sqref="A309:A325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -14611,8 +14806,520 @@
         <v>20</v>
       </c>
     </row>
+    <row r="310" customHeight="1" spans="1:10">
+      <c r="A310" s="1">
+        <v>307</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I310" s="1">
+        <v>90</v>
+      </c>
+      <c r="J310" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" customHeight="1" spans="1:10">
+      <c r="A311" s="1">
+        <v>308</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I311" s="1">
+        <v>90</v>
+      </c>
+      <c r="J311" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" customHeight="1" spans="1:10">
+      <c r="A312" s="1">
+        <v>309</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I312" s="1">
+        <v>20</v>
+      </c>
+      <c r="J312" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="313" customHeight="1" spans="1:10">
+      <c r="A313" s="1">
+        <v>310</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I313" s="1">
+        <v>5</v>
+      </c>
+      <c r="J313" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="314" customHeight="1" spans="1:10">
+      <c r="A314" s="1">
+        <v>311</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I314" s="1">
+        <v>80</v>
+      </c>
+      <c r="J314" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" customHeight="1" spans="1:10">
+      <c r="A315" s="1">
+        <v>312</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I315" s="1">
+        <v>70</v>
+      </c>
+      <c r="J315" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316" customHeight="1" spans="1:10">
+      <c r="A316" s="1">
+        <v>313</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I316" s="1">
+        <v>70</v>
+      </c>
+      <c r="J316" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="317" customHeight="1" spans="1:10">
+      <c r="A317" s="1">
+        <v>314</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I317" s="1">
+        <v>20</v>
+      </c>
+      <c r="J317" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="318" customHeight="1" spans="1:10">
+      <c r="A318" s="1">
+        <v>315</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I318" s="1">
+        <v>70</v>
+      </c>
+      <c r="J318" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" customHeight="1" spans="1:10">
+      <c r="A319" s="1">
+        <v>316</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I319" s="1">
+        <v>70</v>
+      </c>
+      <c r="J319" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" customHeight="1" spans="1:10">
+      <c r="A320" s="1">
+        <v>317</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I320" s="1">
+        <v>70</v>
+      </c>
+      <c r="J320" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="321" customHeight="1" spans="1:10">
+      <c r="A321" s="1">
+        <v>318</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I321" s="1">
+        <v>10</v>
+      </c>
+      <c r="J321" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322" customHeight="1" spans="1:10">
+      <c r="A322" s="1">
+        <v>319</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I322" s="1">
+        <v>70</v>
+      </c>
+      <c r="J322" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323" customHeight="1" spans="1:10">
+      <c r="A323" s="1">
+        <v>320</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I323" s="1">
+        <v>70</v>
+      </c>
+      <c r="J323" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" customHeight="1" spans="1:10">
+      <c r="A324" s="1">
+        <v>321</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I324" s="1">
+        <v>70</v>
+      </c>
+      <c r="J324" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="325" customHeight="1" spans="1:10">
+      <c r="A325" s="1">
+        <v>322</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I325" s="1">
+        <v>1</v>
+      </c>
+      <c r="J325" s="1">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="I1:J300">
+  <autoFilter ref="I1:J309">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
